--- a/info/metricas/NN/RELU/NN3.xlsx
+++ b/info/metricas/NN/RELU/NN3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7778596725676197</v>
+        <v>0.7900495838997141</v>
       </c>
       <c r="C2" t="n">
-        <v>82741.68506419483</v>
+        <v>77979.57946624764</v>
       </c>
       <c r="D2" t="n">
-        <v>182.8310250966537</v>
+        <v>176.5131846333075</v>
       </c>
       <c r="E2" t="n">
-        <v>112.6134277343749</v>
+        <v>106.0775547790527</v>
       </c>
       <c r="F2" t="n">
-        <v>4647016.164881648</v>
+        <v>897393.0306757356</v>
       </c>
       <c r="G2" t="n">
-        <v>2971.415048828125</v>
+        <v>2789.19546875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7778639088461409</v>
+        <v>0.7901870000679296</v>
       </c>
       <c r="I2" t="n">
-        <v>5.910719286822333e+16</v>
+        <v>6.723541563293232e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-527505.2068771868</v>
+        <v>-136658.1604398303</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7865130802134719</v>
+        <v>0.7952389155926374</v>
       </c>
       <c r="C3" t="n">
-        <v>79222.64760170419</v>
+        <v>76266.13774523772</v>
       </c>
       <c r="D3" t="n">
-        <v>181.3620100544437</v>
+        <v>178.2585815542538</v>
       </c>
       <c r="E3" t="n">
-        <v>112.5375314331055</v>
+        <v>106.619294128418</v>
       </c>
       <c r="F3" t="n">
-        <v>4609678.209553795</v>
+        <v>906266.6286218262</v>
       </c>
       <c r="G3" t="n">
-        <v>3363.607822265625</v>
+        <v>2047.926513671875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7867271593825906</v>
+        <v>0.7952699355118683</v>
       </c>
       <c r="I3" t="n">
-        <v>4.893250278816134e+16</v>
+        <v>7.360131388832277e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-618217.9566556128</v>
+        <v>-141966.3052179267</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7689237052628699</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86122.47598436747</v>
+      </c>
+      <c r="D4" t="n">
+        <v>186.3283091014694</v>
+      </c>
+      <c r="E4" t="n">
+        <v>113.6080151367187</v>
+      </c>
+      <c r="F4" t="n">
+        <v>947293.1234718704</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2638.110439453125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7691031724429904</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.56982681072438e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-145727.0806629991</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7996234137695303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72956.08767088424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>174.8354609222472</v>
+      </c>
+      <c r="E5" t="n">
+        <v>103.5922631835938</v>
+      </c>
+      <c r="F5" t="n">
+        <v>888863.4833287048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1807.87390625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7996415830487186</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.933554623783298e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-137194.3445417814</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7758559475665743</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83296.78142846454</v>
+      </c>
+      <c r="D6" t="n">
+        <v>183.8565288092211</v>
+      </c>
+      <c r="E6" t="n">
+        <v>107.7027478027344</v>
+      </c>
+      <c r="F6" t="n">
+        <v>934542.735937271</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2936.0073046875</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7760162044115264</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.230281062604918e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-143034.5194413695</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7937034386197619</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75429.6986495668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>179.4021389577259</v>
+      </c>
+      <c r="E7" t="n">
+        <v>110.1110369873047</v>
+      </c>
+      <c r="F7" t="n">
+        <v>911901.0723221207</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2326.798349609375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7937143239799292</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.691631620448528e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-137993.1783587234</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7686984510646986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>85226.26622757902</v>
+      </c>
+      <c r="D8" t="n">
+        <v>185.4738384178232</v>
+      </c>
+      <c r="E8" t="n">
+        <v>110.4097296142578</v>
+      </c>
+      <c r="F8" t="n">
+        <v>942763.5206777954</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2924.05025390625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7687244263259849</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.834068770922778e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-136207.3694399328</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7973452270538454</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73770.83610890007</v>
+      </c>
+      <c r="D9" t="n">
+        <v>178.9438675490219</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.83198486328126</v>
+      </c>
+      <c r="F9" t="n">
+        <v>909571.6787516786</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2113.848876953125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7973579975165583</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.725113156903827e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-116618.6070073823</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8054465875677923</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75631.21238871384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>182.2587933923127</v>
+      </c>
+      <c r="E10" t="n">
+        <v>104.3189611816406</v>
+      </c>
+      <c r="F10" t="n">
+        <v>926421.4468131256</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2127.110107421875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8054848353361648</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.306414533699894e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-106901.764526347</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7861255995022141</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80834.91800806277</v>
+      </c>
+      <c r="D11" t="n">
+        <v>186.9139572830395</v>
+      </c>
+      <c r="E11" t="n">
+        <v>114.0545935058594</v>
+      </c>
+      <c r="F11" t="n">
+        <v>950083.6448696899</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2309.18408203125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7861264758610329</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.775700470994706e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-141470.6312244346</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU3</t>
         </is>
